--- a/biology/Botanique/Karl_Friedrich_von_Ledebour/Karl_Friedrich_von_Ledebour.xlsx
+++ b/biology/Botanique/Karl_Friedrich_von_Ledebour/Karl_Friedrich_von_Ledebour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl (ou Carl) Friedrich von Ledebour est un botaniste allemand, né le 8 juillet 1785 à Stralsund et mort le 4 juillet 1851 à Munich.
 </t>
@@ -511,7 +523,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ledebour est le fils de l'auditeur militaire suédois Johann Ledebour (mort en 1785 ; peu avant sa naissance). Il n'appartient pas à la famille noble westphalienne von Ledebour (de). Sa mère est Anna Maria Hagemann, directrice d'une école de filles à Barth depuis 1799. Il épouse en 1815 Elisabeth von Mirbach (1786-1863), fille du staroste de Gitany et héritier de Krussen Georg Christoph von Mirbach et de son épouse Christine Emerentia von Nolde. Le couple n'a pas d'enfant et adopte une fille.
 </t>
@@ -542,7 +556,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur de botanique à Dorpat (aujourd'hui Tartu en Estonie) de 1811 à 1836 puis à Heidelberg et à Munich. Il visite les monts Altaï et la Russie aux côtés de Carl Anton von Meyer (1795-1855) et d'Alexander von Bunge (1803-1890), expédition préparée localement par Friedrich August von Gebler. Il a étudié de nombreuses espèces dont le sapin de Sibérie en 1833.
 </t>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il est notamment l’auteur de : 
 Reise durch das Altai-Gebirge (Berlin, 1829).
